--- a/Tendencias/Tendencias.xlsx
+++ b/Tendencias/Tendencias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Desktop\Investigacion\Tendencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryu\Desktop\2024\Investigacion\Tendencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E3B44E5-B9EB-4D7D-86E2-231267DB76FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0674A1A-6359-4227-B5E2-268C944208E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{297FC43B-AA45-4FBC-AE43-A57A3A123072}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{297FC43B-AA45-4FBC-AE43-A57A3A123072}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>IA:</t>
-  </si>
-  <si>
-    <t>IA Coversacional : GPT-4.5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>SALUD</t>
   </si>
@@ -253,7 +247,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -325,7 +319,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -623,202 +617,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B258BEF2-2E30-44E3-8864-15DCC60DDF81}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D48" s="10"/>
     </row>

--- a/Tendencias/Tendencias.xlsx
+++ b/Tendencias/Tendencias.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryu\Desktop\2024\Investigacion\Tendencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Other\Desktop\Maryury\Investigacion\Tendencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0674A1A-6359-4227-B5E2-268C944208E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{297FC43B-AA45-4FBC-AE43-A57A3A123072}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -147,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -245,9 +244,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -267,13 +269,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>192958</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>162348</xdr:rowOff>
@@ -614,203 +616,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B258BEF2-2E30-44E3-8864-15DCC60DDF81}">
-  <dimension ref="A1:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
+    <row r="39" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
+    <row r="48" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{9FAE5846-ABC1-4743-A441-B99837A2987C}"/>
-    <hyperlink ref="C39" r:id="rId2" xr:uid="{07716B46-F3A8-4967-B5F9-0E494AC48BBE}"/>
-    <hyperlink ref="C48" r:id="rId3" xr:uid="{8ED405A4-B04B-44C2-99E2-B01E6DD3731B}"/>
+    <hyperlink ref="D14" r:id="rId1"/>
+    <hyperlink ref="D39" r:id="rId2"/>
+    <hyperlink ref="D48" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>

--- a/Tendencias/Tendencias.xlsx
+++ b/Tendencias/Tendencias.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Other\Desktop\Maryury\Investigacion\Tendencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryu\Desktop\2024\Investigacion\Tendencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A3DFA-4F7B-428F-A188-52C01FEDAD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tiobe" sheetId="2" r:id="rId2"/>
+    <sheet name="Git hub" sheetId="4" r:id="rId3"/>
+    <sheet name="starOverFlow" sheetId="3" r:id="rId4"/>
+    <sheet name="Stateofjs" sheetId="5" r:id="rId5"/>
+    <sheet name="World Economic Forum" sheetId="6" r:id="rId6"/>
+    <sheet name="IBM" sheetId="8" r:id="rId7"/>
+    <sheet name="Hostinger" sheetId="9" r:id="rId8"/>
+    <sheet name="MordorIntelligence" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>SALUD</t>
   </si>
@@ -141,12 +150,79 @@
   </si>
   <si>
     <t xml:space="preserve">Developers are building with generative AI in big numbers. - Developers are operating cloud-native applications at scale. -2023 saw the largest number of first-time open source contributors.                     </t>
+  </si>
+  <si>
+    <t>Las comunidades de desarrolladores de más rápido crecimiento en Asia Pacífico</t>
+  </si>
+  <si>
+    <t>https://survey.stackoverflow.co/2024/technology#most-popular-technologies</t>
+  </si>
+  <si>
+    <t>Most popular technologies</t>
+  </si>
+  <si>
+    <t>Programming, scripting, and markup languages
+JavaScript has been a mainstay in the developer survey and on Stack Overflow since our first survey. The most popular programming language has been JavaScript every year we have done the survey except for 2013 and 2014, when SQL was the most popular language.</t>
+  </si>
+  <si>
+    <t>https://2023.stateofjs.com/en-US/other-tools/</t>
+  </si>
+  <si>
+    <t>Other Tools
+While the JavaScript conversation often seems to boild down to which framework to pick, it's worth remembering that there's a whole galaxy of other tools, services, and platforms to explore beyond that!</t>
+  </si>
+  <si>
+    <t>Blockchain y Web3: Las tecnologías de blockchain y la descentralización continúan evolucionando, con un enfoque en aplicaciones más allá de las criptomonedas, como contratos inteligentes y gestión de identida</t>
+  </si>
+  <si>
+    <t>https://www.weforum.org/</t>
+  </si>
+  <si>
+    <t>Hetzner es la plataforma en la nube más admirada por segundo año consecutivo con un puntaje de admiración del 75 %, frente al 70 % del año pasado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plataformas en la nube
+</t>
+  </si>
+  <si>
+    <t>https://survey.stackoverflow.co/2024/technology#2-cloud-platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+El doble de desarrolladores que utilizan ChatGPT en comparación con su siguiente alternativa más cercana, GitHub Copilot. ChatGPT tiene una opción gratuita popular que, como es obvio, gusta a los desarrolladores.</t>
+  </si>
+  <si>
+    <t>Herramientas de búsqueda y desarrollo de IA</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/think/insights/ai-trends</t>
+  </si>
+  <si>
+    <t>Top 6 predictions for AI advancements and trends in 2024</t>
+  </si>
+  <si>
+    <t>https://www.mckinsey.com/featured-insights/artificial-intelligence/five-fifty-fear-fear-not</t>
+  </si>
+  <si>
+    <t>https://www.hostinger.co/tutoriales/estadisticas-y-tendencias-de-ia</t>
+  </si>
+  <si>
+    <t>La IA contribuirá con más de 15 billones de dólares a la economía global para 2030</t>
+  </si>
+  <si>
+    <t>https://www.mordorintelligence.com/es/industry-reports/green-technology-market/market-size</t>
+  </si>
+  <si>
+    <t>Análisis del mercado de tecnología verde Source</t>
+  </si>
+  <si>
+    <t>Hay un gran crecimiento de las emisiones de gases de efecto invernadero y carbono. Esto está llevando a un mercado creciente para la tecnología verde en todo el mundo. Source: https://www.mordorintelligence.com/es/industry-reports/green-technology-market/market-size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,9 +323,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -277,7 +359,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>192958</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>162348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -616,21 +698,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -644,17 +726,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>2</v>
@@ -663,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -672,7 +754,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -686,22 +768,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -712,7 +794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -723,7 +805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
@@ -734,12 +816,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -750,12 +832,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
@@ -766,7 +848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -777,17 +859,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10</v>
       </c>
@@ -801,12 +883,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>31</v>
       </c>
@@ -814,7 +896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>32</v>
       </c>
@@ -822,15 +904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C48" s="2" t="s">
         <v>38</v>
       </c>
@@ -841,12 +915,298 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1"/>
-    <hyperlink ref="D39" r:id="rId2"/>
-    <hyperlink ref="D48" r:id="rId3"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D48" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{035C5B23-1E99-4B9B-8DAB-14BB319B2EC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
   <drawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67504D4-8ABC-4488-8F12-D08899845628}">
+  <dimension ref="A3:A5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:1" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED39D526-04A1-4933-8D26-C58F736C0288}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C3AC5034-BDBF-403C-91D1-2A6A06FBB515}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F451591A-F205-46B8-BC35-A0D58146321C}">
+  <dimension ref="A4:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" location="most-popular-technologies" xr:uid="{A830618E-3587-4B44-B20D-3E2669D47923}"/>
+    <hyperlink ref="D5" r:id="rId2" location="2-cloud-platforms" xr:uid="{92145C84-2E51-49E5-82BE-7F8ADBAF9CFA}"/>
+    <hyperlink ref="G5" r:id="rId3" location="2-cloud-platforms" xr:uid="{31565CB2-B774-4675-BBB8-5B279B729073}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE96730-6E36-4F56-B13A-4B020DEA0ED4}">
+  <dimension ref="A3:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{3A239252-9DD8-4E74-98B1-0FC99FB68DA1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DF6ECD-8F81-495C-BAEC-200D66442917}">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{5DBBE4C2-5378-43BA-A28A-A28BEF71E6BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F669C68C-E216-4242-90F8-5C994974BFE5}">
+  <dimension ref="B4:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{3F3F9918-98E5-4DD2-96E0-AF3E5A349CBD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530E23C5-571F-4F98-9A29-244549F54A66}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{0A581498-0FCF-414F-9D0C-F8D727E49377}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E2AEE1-5B75-4833-87BB-1AF3E8C6D59D}">
+  <dimension ref="B3:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>